--- a/biology/Botanique/Aleurites/Aleurites.xlsx
+++ b/biology/Botanique/Aleurites/Aleurites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aleurites est un genre d'arbres de la famille des Euphorbiaceae. Ses espèces sont originaires des régions tropicales d'Asie et d'Amérique du Sud.
 Ces arbres monoïques, sempervirents, sont pérennes ou semi-pérennes. Ce sont de grands arbres de 15-40 m de haut, avec des branches étalées et érigées.
@@ -518,9 +530,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À l'heure actuelle, beaucoup de botanistes ne reconnaissent plus que deux espèces[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À l'heure actuelle, beaucoup de botanistes ne reconnaissent plus que deux espèces : 
 Aleurites moluccana (L.) Willd. - Le noyer des Moluques, l'espèce la plus répandue
 Aleurites rockinghamensis (Baill.) P.I.Forst.
 Sont considérées comme synonymes à Aleurites moluccana (L.) Willd. : 
@@ -529,9 +543,43 @@
 Aleurites javanica Gand.
 Aleurites pentaphylla Wall.
 Aleurites remyi Sherff
-Aleurites triloba J.R.Forst. &amp; G.Forst.
-Espèces déplacées vers d'autres genres
-Pour Aleurites cordata (Thunb.) R.Br. ex Steud., voir Vernicia cordata (Thunb.) Airy Shaw
+Aleurites triloba J.R.Forst. &amp; G.Forst.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aleurites</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aleurites</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers d'autres genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour Aleurites cordata (Thunb.) R.Br. ex Steud., voir Vernicia cordata (Thunb.) Airy Shaw
 Pour Aleurites erratica O.Deg., I.Deg. &amp; K.Hummel, voir Omphalea papuana Pax &amp; K.Hoffm.
 Pour Aleurites fordii Hemsl., voir Vernicia fordii (Hemsl.) Airy Shaw
 Pour Aleurites montana (Lour.) E.H.Wilson, voir Vernicia montana Lour.
@@ -539,31 +587,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aleurites</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aleurites</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aleurites englobe le genre Camirium Gaertn.
 </t>
